--- a/StockData/year_eps.xlsx
+++ b/StockData/year_eps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,46 @@
           <t>EPS_2002</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Year_2317</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_2317</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Year_2731</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_2731</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Year_3687</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_3687</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>24Q1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+0.72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,6 +524,36 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>+0.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24Q1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+0.66</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>24Q1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>+2.41</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>24Q1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>+0.14</t>
         </is>
       </c>
     </row>
@@ -528,6 +588,36 @@
           <t>-1.04</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+0.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>+24.12</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +650,36 @@
           <t>-2.87</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+0.16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>+0.29</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +712,36 @@
           <t>+3.97</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+2.71</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>+0.93</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +774,36 @@
           <t>-0.52</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-9.04</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>+1.37</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +836,36 @@
           <t>-1.01</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+0.29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>+3.41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +898,36 @@
           <t>+0.49</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+0.02</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-2.84</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>+1.09</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +960,36 @@
           <t>+0.05</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>+2.96</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>+4.25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +1022,36 @@
           <t>+0.55</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-2.89</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-5.02</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +1084,36 @@
           <t>-0.94</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+0.57</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>+0.95</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>+9.09</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +1146,36 @@
           <t>+0.38</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+0.69</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-8.48</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,6 +1208,36 @@
           <t>+0.66</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+0.14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>+3.47</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-10.55</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,6 +1270,36 @@
           <t>-0.97</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+0.37</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-5.58</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -912,6 +1332,36 @@
           <t>-1.47</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>+8.72</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,6 +1394,36 @@
           <t>+1.29</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-7.45</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,6 +1456,28 @@
           <t>-0.49</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+1.4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1008,446 +1510,20 @@
           <t>-2.46</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>+3.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+0.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>+1.14</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>+1.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-1.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>+0.86</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>+1.64</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+1.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>+1.19</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+2.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>+0.31</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+1.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>-4.88</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>+2.47</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+0.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-1.86</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+1.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-2.91</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>-3.17</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+0.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-4.91</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
